--- a/sputnik/personal/ee/16ee.xlsx
+++ b/sputnik/personal/ee/16ee.xlsx
@@ -16,23 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,13 +39,31 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>Начислены пени за просрочку оплаты на 235дн.: 748,74 х (235-40) х 0,1% =146,00</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты на 64дн.: 2158,70 х (104-40) х 0,1% =138,16</t>
-  </si>
-  <si>
-    <t>нет данных</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>ИТОГО ЗА ПЕРИОД</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты на 64д</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты на 235д</t>
+  </si>
+  <si>
+    <t>долг</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
   </si>
 </sst>
 </file>
@@ -59,9 +71,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +117,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,30 +148,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -178,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,29 +186,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+      <selection activeCell="G12" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,305 +534,318 @@
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43824</v>
+        <v>43366</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>2499</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1978</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>1020</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43710</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43710</v>
-      </c>
+        <v>43602</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2100</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(C4,-C2)</f>
+        <v>122</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="6">
+        <f>PRODUCT(D4,E4)</f>
+        <v>557.54000000000008</v>
+      </c>
+      <c r="G4" s="6">
+        <f>SUM(F4,F5)</f>
+        <v>748.74000000000012</v>
+      </c>
+      <c r="H4" s="6">
+        <v>748.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>2499</v>
+        <v>869</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C8)</f>
-        <v>399</v>
+        <f>SUM(C5,-C3)</f>
+        <v>80</v>
       </c>
       <c r="E5" s="3">
-        <v>4.49</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f>PRODUCT(D5,E5)</f>
-        <v>1791.51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+        <v>191.20000000000002</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43710</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>1020</v>
+        <v>2499</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C9)</f>
-        <v>151</v>
+        <f>SUM(C6,-C4)</f>
+        <v>399</v>
       </c>
       <c r="E6" s="3">
-        <v>2.4300000000000002</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
         <f>PRODUCT(D6,E6)</f>
+        <v>1791.51</v>
+      </c>
+      <c r="G6" s="6">
+        <f>SUM(F6,F7)</f>
+        <v>2158.44</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2158.6999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(C7,-C5)</f>
+        <v>151</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <f>PRODUCT(D7,E7)</f>
         <v>366.93</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43602</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43602</v>
+        <v>43824</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>2100</v>
-      </c>
-      <c r="D8" s="3">
-        <f>SUM(C8,-C10)</f>
-        <v>122</v>
+        <v>2499</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>PRODUCT(D8,E8)</f>
-        <v>557.54000000000008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(F8,F9)</f>
+        <v>1000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
-        <v>869</v>
-      </c>
-      <c r="D9" s="3">
-        <f>SUM(C9,-C11)</f>
-        <v>80</v>
+        <v>1020</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="6">
-        <f>PRODUCT(D9,E9)</f>
-        <v>191.20000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43366</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1978</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>789</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6">
+        <f>SUM(G4:G9)</f>
+        <v>3907.1800000000003</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(H4:H9)</f>
+        <v>3907.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43602</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15">
+        <v>146</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43710</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15">
+        <v>138.16</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="1" t="s">
-        <v>2</v>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="15">
+        <f>SUM(G10,G11,G12)</f>
+        <v>4191.34</v>
+      </c>
+      <c r="H13" s="15">
+        <f>SUM(H10,H11,H12)</f>
+        <v>3907.56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
+        <f>SUM(H10,-G13)</f>
+        <v>-283.7800000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B4:F4"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/16ee.xlsx
+++ b/sputnik/personal/ee/16ee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010" tabRatio="479"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G11:G12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,8 +622,8 @@
         <v>557.54000000000008</v>
       </c>
       <c r="G4" s="6">
-        <f>SUM(F4,F5)</f>
-        <v>748.74000000000012</v>
+        <f>F4</f>
+        <v>557.54000000000008</v>
       </c>
       <c r="H4" s="6">
         <v>748.86</v>
@@ -648,7 +648,10 @@
         <f>PRODUCT(D5,E5)</f>
         <v>191.20000000000002</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G9" si="0">F5</f>
+        <v>191.20000000000002</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>1</v>
       </c>
@@ -675,8 +678,8 @@
         <v>1791.51</v>
       </c>
       <c r="G6" s="6">
-        <f>SUM(F6,F7)</f>
-        <v>2158.44</v>
+        <f t="shared" si="0"/>
+        <v>1791.51</v>
       </c>
       <c r="H6" s="6">
         <v>2158.6999999999998</v>
@@ -701,7 +704,10 @@
         <f>PRODUCT(D7,E7)</f>
         <v>366.93</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>366.93</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -724,7 +730,7 @@
         <v>1000</v>
       </c>
       <c r="G8" s="6">
-        <f>SUM(F8,F9)</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="H8" s="6">
@@ -746,7 +752,10 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -760,7 +769,7 @@
       </c>
       <c r="G10" s="6">
         <f>SUM(G4:G9)</f>
-        <v>3907.1800000000003</v>
+        <v>3907.18</v>
       </c>
       <c r="H10" s="6">
         <f>SUM(H4:H9)</f>

--- a/sputnik/personal/ee/16ee.xlsx
+++ b/sputnik/personal/ee/16ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>ИТОГО ЗА ПЕРИОД</t>
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты на 64д</t>
@@ -173,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -196,9 +193,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,10 +517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -758,87 +752,101 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="6">
-        <f>SUM(G4:G9)</f>
-        <v>3907.18</v>
-      </c>
-      <c r="H10" s="6">
-        <f>SUM(H4:H9)</f>
-        <v>3907.56</v>
-      </c>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43602</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14">
+        <v>146</v>
+      </c>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43602</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+        <v>43710</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15">
-        <v>146</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="14">
+        <v>138.16</v>
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43710</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="15">
-        <v>138.16</v>
-      </c>
-      <c r="H12" s="6"/>
+        <v>43984</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>380.03</v>
+      </c>
+      <c r="H12" s="6">
+        <v>380.03</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="15">
-        <f>SUM(G10,G11,G12)</f>
-        <v>4191.34</v>
-      </c>
-      <c r="H13" s="15">
-        <f>SUM(H10,H11,H12)</f>
-        <v>3907.56</v>
-      </c>
+      <c r="B13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="14">
+        <f t="shared" ref="G12:G13" si="1">F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <f>SUM(H10,-G13)</f>
-        <v>-283.7800000000002</v>
+      <c r="G14" s="14">
+        <f>SUM(G4:G13)</f>
+        <v>4571.37</v>
+      </c>
+      <c r="H14" s="14">
+        <f>SUM(H4:H13)</f>
+        <v>4287.59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,9 +855,24 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6">
+        <f>SUM(H14,-G14)</f>
+        <v>-283.77999999999975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/16ee.xlsx
+++ b/sputnik/personal/ee/16ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -517,10 +517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -826,53 +826,100 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="14">
-        <f t="shared" ref="G12:G13" si="1">F13</f>
+        <f t="shared" ref="G13" si="1">F13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="A14" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>500</v>
+      </c>
+      <c r="H14" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="14">
+        <f t="shared" ref="G15" si="2">F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="14">
-        <f>SUM(G4:G13)</f>
-        <v>4571.37</v>
-      </c>
-      <c r="H14" s="14">
-        <f>SUM(H4:H13)</f>
-        <v>4287.59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6" t="s">
+      <c r="G16" s="14">
+        <f>SUM(G4:G15)</f>
+        <v>5071.37</v>
+      </c>
+      <c r="H16" s="14">
+        <f>SUM(H4:H15)</f>
+        <v>4787.59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <f>SUM(H16,-G16)</f>
         <v>-283.77999999999975</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/16ee.xlsx
+++ b/sputnik/personal/ee/16ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -70,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,30 @@
     <font>
       <sz val="10"/>
       <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -170,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -209,6 +233,27 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +562,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -721,11 +766,10 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6">
         <v>1000</v>
@@ -756,13 +800,19 @@
       <c r="A10" s="4">
         <v>43602</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
       <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
       <c r="G10" s="14">
         <v>146</v>
       </c>
@@ -772,13 +822,19 @@
       <c r="A11" s="4">
         <v>43710</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
       <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
       <c r="G11" s="14">
         <v>138.16</v>
       </c>
@@ -788,23 +844,23 @@
       <c r="A12" s="4">
         <v>43984</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="B12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
         <v>4.49</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>380.03</v>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
       </c>
       <c r="H12" s="6">
         <v>380.03</v>
@@ -812,20 +868,20 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="14">
+      <c r="F13" s="15"/>
+      <c r="G13" s="20">
         <f t="shared" ref="G13" si="1">F13</f>
         <v>0</v>
       </c>
@@ -835,23 +891,23 @@
       <c r="A14" s="4">
         <v>43999</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="B14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
         <v>4.49</v>
       </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <v>500</v>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
       </c>
       <c r="H14" s="6">
         <v>500</v>
@@ -859,67 +915,113 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="14">
+      <c r="F15" s="15"/>
+      <c r="G15" s="20">
         <f t="shared" ref="G15" si="2">F15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
+      <c r="A16" s="4">
+        <v>44027</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>28870</v>
+      </c>
+      <c r="D16" s="21">
+        <v>371</v>
+      </c>
+      <c r="E16" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1665.79</v>
+      </c>
+      <c r="G16" s="20">
+        <v>2098.33</v>
+      </c>
+      <c r="H16" s="6">
+        <v>218.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1198</v>
+      </c>
+      <c r="D17" s="21">
+        <v>178</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="16">
+        <v>432.54</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="14">
-        <f>SUM(G4:G15)</f>
-        <v>5071.37</v>
-      </c>
-      <c r="H16" s="14">
-        <f>SUM(H4:H15)</f>
-        <v>4787.59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6" t="s">
+      <c r="G18" s="14">
+        <f>SUM(G4:G16)</f>
+        <v>5289.67</v>
+      </c>
+      <c r="H18" s="14">
+        <f>SUM(H4:H16)</f>
+        <v>5005.8900000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <f>SUM(H18,-G18)</f>
         <v>-283.77999999999975</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/16ee.xlsx
+++ b/sputnik/personal/ee/16ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -562,10 +562,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="18">
-        <v>28870</v>
+        <v>2887</v>
       </c>
       <c r="D16" s="21">
         <v>371</v>
@@ -981,47 +981,98 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
+      <c r="A18" s="4">
+        <v>44070</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <v>3002</v>
+      </c>
+      <c r="D18" s="21">
+        <f>SUM(C18,-C16)</f>
+        <v>115</v>
+      </c>
+      <c r="E18" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="16">
+        <f>PRODUCT(D18,E18)</f>
+        <v>541.65</v>
+      </c>
+      <c r="G18" s="20">
+        <f>SUM(F18,F19)</f>
+        <v>674.25</v>
+      </c>
+      <c r="H18" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1250</v>
+      </c>
+      <c r="D19" s="21">
+        <f>SUM(C19,-C17)</f>
+        <v>52</v>
+      </c>
+      <c r="E19" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="16">
+        <f>PRODUCT(D19,E19)</f>
+        <v>132.6</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="14">
-        <f>SUM(G4:G16)</f>
-        <v>5289.67</v>
-      </c>
-      <c r="H18" s="14">
-        <f>SUM(H4:H16)</f>
-        <v>5005.8900000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6" t="s">
+      <c r="G20" s="14">
+        <f>SUM(G4:G19)</f>
+        <v>5963.92</v>
+      </c>
+      <c r="H20" s="14">
+        <f>SUM(H4:H19)</f>
+        <v>5505.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <f>SUM(H18,-G18)</f>
-        <v>-283.77999999999975</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
+        <f>SUM(H20,-G20)</f>
+        <v>-458.02999999999975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/16ee.xlsx
+++ b/sputnik/personal/ee/16ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 22.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,27 +591,65 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="4">
+        <v>44370</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3092</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C6</f>
+        <v>90</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f>D8*E8</f>
+        <v>423.9</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>551.4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>551.4</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9" si="4">C9-C7</f>
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9" si="5">D9*E9</f>
+        <v>127.49999999999999</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>

--- a/sputnik/personal/ee/16ee.xlsx
+++ b/sputnik/personal/ee/16ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 22.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -54,13 +54,16 @@
   </si>
   <si>
     <t>T2</t>
+  </si>
+  <si>
+    <t>старый</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +85,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -137,6 +148,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -417,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +501,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="9">
         <v>44070</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -510,15 +522,15 @@
         <v>541.65</v>
       </c>
       <c r="G4" s="8">
-        <f>SUM(F4,F5)</f>
-        <v>674.25</v>
+        <f>SUM(F4,F7)</f>
+        <v>541.65</v>
       </c>
       <c r="H4" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -526,47 +538,36 @@
         <v>1250</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5" si="0">C5-C3</f>
+        <f>C5-C3</f>
         <v>52</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5" si="1">D5*E5</f>
+        <f t="shared" ref="F5" si="0">D5*E5</f>
         <v>132.6</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44158</v>
+      <c r="A6" s="9">
+        <v>44135</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>3002</v>
-      </c>
-      <c r="D6" s="3">
-        <f>C6-C4</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F6" s="8">
-        <f>D6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <f>SUM(F6,F7)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1584.1</v>
-      </c>
+        <v>3042</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -574,50 +575,29 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>1250</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" ref="D7" si="2">C7-C5</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" ref="F7" si="3">D7*E7</f>
-        <v>0</v>
-      </c>
+        <v>1269</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44370</v>
+        <v>44143</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>3092</v>
-      </c>
-      <c r="D8" s="3">
-        <f>C8-C6</f>
-        <v>90</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="8">
-        <f>D8*E8</f>
-        <v>423.9</v>
-      </c>
-      <c r="G8" s="8">
-        <f>SUM(F8,F9)</f>
-        <v>551.4</v>
-      </c>
-      <c r="H8" s="8">
-        <v>551.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -625,43 +605,125 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9" si="4">C9-C7</f>
-        <v>50</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" ref="F9" si="5">D9*E9</f>
-        <v>127.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44158</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>200</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C8</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f>D10*E10</f>
+        <v>942</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1584.6</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1584.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>252</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C9</f>
+        <v>252</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ref="F11" si="1">D11*E11</f>
+        <v>642.59999999999991</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44370</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>290</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C10</f>
+        <v>90</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f>D12*E12</f>
+        <v>423.9</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>551.4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>551.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>302</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="2">C13-C11</f>
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13" si="3">D13*E13</f>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
@@ -674,6 +736,18 @@
     </row>
     <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
